--- a/outputs-r202/p__Thermoplasmatota.xlsx
+++ b/outputs-r202/p__Thermoplasmatota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>c__Thermoplasmata</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -995,6 +1055,11 @@
         <v>1</v>
       </c>
       <c r="L13" t="inlineStr">
+        <is>
+          <t>c__Thermoplasmata</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>c__Thermoplasmata</t>
         </is>

--- a/outputs-r202/p__Thermoplasmatota.xlsx
+++ b/outputs-r202/p__Thermoplasmatota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,38 +504,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG255.fasta</t>
+          <t>RUG336.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.175270561641584e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005657543316492548</v>
+        <v>6.595486066348179e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17527056164158e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.175270561641592e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>1.175270561641594e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175270561641581e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>1.17527056164158e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9943424566752805</v>
+        <v>0.999999340451238</v>
       </c>
       <c r="J2" t="n">
-        <v>1.175270561641584e-12</v>
+        <v>2.220445886530152e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9943424566752805</v>
+        <v>0.999999340451238</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -551,38 +551,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG258.fasta</t>
+          <t>hRUG898.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.815291805724087e-14</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007526530577492801</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.815291805724087e-14</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.815291805724205e-14</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6.815291805724222e-14</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.815291805724168e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.815291805724133e-14</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9992473469417736</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>6.815291805724155e-14</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9992473469417736</v>
+        <v>1</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -590,476 +590,6 @@
         </is>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG293.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.01480863877485577</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.01480863877485577</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01480863877485577</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.01480863877485583</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01480863877485586</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01480863877485582</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.01480863877485582</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8815308898011536</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.01480863877485578</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8815308898011536</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG336.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.017079698682136e-08</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9999999098290475</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.220446027003674e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9999999098290475</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>RUG466.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0009802776006885853</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9990197223991557</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.224844186892238e-14</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9990197223991557</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>RUG567.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2.770035608984592e-13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.03609588678050159</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.770035608984587e-13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.770035608984602e-13</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.770035608984602e-13</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.770035608984594e-13</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.770035608984596e-13</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.9639041132175593</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.77003560898459e-13</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9639041132175593</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RUG568.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.390483901088649e-06</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.9999986095159435</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.220445706196946e-14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9999986095159435</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>RUG642.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.006953436162818155</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9930465638370264</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.219964772311262e-14</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.9930465638370264</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>RUG675.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003631315115088425</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.9963686848847562</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.219960871512151e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.9963686848847562</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>RUG707.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.840067014258155e-07</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.9999998159931431</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.220446003853145e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.9999998159931431</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>RUG779.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>hRUG898.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>c__Thermoplasmata</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
         <is>
           <t>c__Thermoplasmata</t>
         </is>
